--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tutorials\GIT\GIT GUI Trial\GUI-Trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E447767F-5E92-4B21-967C-4ED100153FF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB5454F-8260-4F5B-8672-BA3DCAE765CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Column1</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>branch1</t>
+  </si>
+  <si>
+    <t>Branch2</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,6 +407,9 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tutorials\GIT\GIT GUI Trial\GUI-Trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB5454F-8260-4F5B-8672-BA3DCAE765CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0EC732-A2D7-48EE-8657-7912BF3C869F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Column1</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>main</t>
-  </si>
-  <si>
-    <t>branch1</t>
   </si>
   <si>
     <t>Branch2</t>
@@ -371,7 +368,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,9 +404,6 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
